--- a/Escala.xlsx
+++ b/Escala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ralencar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CFC30D-F027-41CB-9E71-40A886E94579}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86C2CD1-AF20-4EDD-99E8-E68DAA1F2812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D9FBCDB3-9C4A-4AE9-81F4-54298CF20BED}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D9FBCDB3-9C4A-4AE9-81F4-54298CF20BED}"/>
   </bookViews>
   <sheets>
     <sheet name="Escala Cartões" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Voluntários Sexta</t>
   </si>
@@ -152,19 +147,15 @@
   <si>
     <t>Sandra (Parque Real) Edvaldo (Parque Real)</t>
   </si>
+  <si>
+    <t>465456456f455g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,6 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,8 +297,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46920A3C-EB0F-4A1D-955E-DD99C8A9BAA0}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +624,7 @@
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,75 +632,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -718,38 +708,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -757,10 +750,10 @@
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -773,7 +766,7 @@
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -784,7 +777,7 @@
       <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
@@ -801,7 +794,7 @@
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -809,10 +802,10 @@
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
@@ -825,7 +818,7 @@
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -833,10 +826,10 @@
       <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
@@ -846,10 +839,10 @@
       <c r="A30" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -860,7 +853,7 @@
       <c r="B31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
